--- a/BalanceSheet/ON_bal.xlsx
+++ b/BalanceSheet/ON_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>25800000.0</v>
+        <v>1251000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-600000.0</v>
+        <v>1281000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-32000000.0</v>
+        <v>1285000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-19500000.0</v>
+        <v>1252000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>8200000.0</v>
+        <v>1232000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1240700000.0</v>
@@ -1632,19 +1632,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>30800000.0</v>
+        <v>573000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1100000.0</v>
+        <v>534000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>14700000.0</v>
+        <v>523000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-12400000.0</v>
+        <v>504000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-1900000.0</v>
+        <v>544000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>534100000.0</v>
@@ -2966,19 +2966,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>26500000.0</v>
+        <v>-372000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-136800000.0</v>
+        <v>-399000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>6700000.0</v>
+        <v>-264000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-19000000.0</v>
+        <v>-270000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>400000.0</v>
+        <v>-248000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>59800000.0</v>
